--- a/宏观经济/eta/10年期美国国债收益率Non-Trend-F0.05_月度数据.xlsx
+++ b/宏观经济/eta/10年期美国国债收益率Non-Trend-F0.05_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-0.2582</v>
+        <v>0.0359</v>
       </c>
     </row>
     <row r="3">
@@ -468,10 +468,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.2182</v>
+        <v>-0.2169</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1034</v>
+        <v>-0.0381</v>
       </c>
     </row>
     <row r="4">
@@ -481,10 +481,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1584</v>
+        <v>-0.1551</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1566</v>
+        <v>-0.1533</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0247</v>
+        <v>-0.0219</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0212</v>
+        <v>-0.0183</v>
       </c>
     </row>
     <row r="6">
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0983</v>
+        <v>0.1006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0955</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="7">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0886</v>
+        <v>0.0905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0851</v>
+        <v>0.0868</v>
       </c>
     </row>
     <row r="8">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1281</v>
+        <v>0.1295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1269</v>
+        <v>0.1286</v>
       </c>
     </row>
     <row r="9">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.017</v>
+        <v>-0.0159</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0127</v>
+        <v>-0.0117</v>
       </c>
     </row>
     <row r="10">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.0153</v>
+        <v>-0.0146</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0132</v>
+        <v>-0.0129</v>
       </c>
     </row>
     <row r="11">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1591</v>
+        <v>0.1595</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1594</v>
+        <v>0.1599</v>
       </c>
     </row>
     <row r="12">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3342</v>
+        <v>0.3343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3325</v>
+        <v>0.3326</v>
       </c>
     </row>
     <row r="13">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1031</v>
+        <v>0.1032</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1033</v>
+        <v>0.1035</v>
       </c>
     </row>
     <row r="14">
@@ -614,7 +614,7 @@
         <v>0.0649</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06</v>
+        <v>0.0602</v>
       </c>
     </row>
     <row r="15">
@@ -627,7 +627,7 @@
         <v>-0.1869</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1828</v>
+        <v>-0.183</v>
       </c>
     </row>
     <row r="16">
@@ -653,7 +653,7 @@
         <v>-0.3909</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3929</v>
+        <v>-0.3927</v>
       </c>
     </row>
     <row r="18">
@@ -666,7 +666,7 @@
         <v>0.0037</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0033</v>
+        <v>0.0034</v>
       </c>
     </row>
     <row r="19">
@@ -692,7 +692,7 @@
         <v>0.2473</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2431</v>
+        <v>0.2432</v>
       </c>
     </row>
     <row r="21">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1733</v>
+        <v>-0.1734</v>
       </c>
       <c r="C24" t="n">
         <v>-0.1719</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.6949</v>
+        <v>0.6948</v>
       </c>
       <c r="C27" t="inlineStr"/>
     </row>
@@ -809,7 +809,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.0381</v>
+        <v>-0.0382</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.2619</v>
+        <v>-0.262</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.3125</v>
+        <v>-0.3126</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -864,7 +864,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.1325</v>
+        <v>0.1324</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
